--- a/biology/Botanique/Corynocarpaceae/Corynocarpaceae.xlsx
+++ b/biology/Botanique/Corynocarpaceae/Corynocarpaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Corynocarpacées est une famille de plantes dicotylédones comprenant cinq espèces appartenant au genre Corynocarpus. 
 Ce sont des arbres ou des arbustes, à feuilles parcheminées, alternes, simples, des régions subtropicales à tropicales que l'on rencontre en Malaisie, en Australie, en Nouvelle-Calédonie et en Nouvelle-Zélande.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Corynocarpus dérivé du grec κορυνε / koryne, trèfle, et καρπός / karpos, fruit.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Classification de Cronquist met cette famille dans l'ordre des Celastrales.
-La classification phylogénétique APG III (2009)[1] l'attribue aux Cucurbitales.
+La classification phylogénétique APG III (2009) l'attribue aux Cucurbitales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010)[2], Angiosperm Phylogeny Website                        (26 mai 2010)[3], NCBI  (26 mai 2010)[4], DELTA Angio           (26 mai 2010)[5] et ITIS      (26 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010), Angiosperm Phylogeny Website                        (26 mai 2010), NCBI  (26 mai 2010), DELTA Angio           (26 mai 2010) et ITIS      (26 mai 2010) :
 genre Corynocarpus J.R.Forst. &amp; G.Forst. (1775)</t>
         </is>
       </c>
@@ -606,16 +624,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2010) :
 genre Corynocarpus J.R.Forst. &amp; G.Forst. (1775)
 Corynocarpus cribbianus (F.M.Bailey) L.S.Sm. (1956)
 Corynocarpus dissimilis Hemsl. (1903)
 Corynocarpus laevigatus J.R.Forst. &amp; G.Forst. (1775)
 Corynocarpus rupestris Guymer (1984)
 Corynocarpus similis Hemsl. (1903)
-Selon NCBI  (26 mai 2010)[4] :
+Selon NCBI  (26 mai 2010) :
 genre Corynocarpus
 Corynocarpus cribbiana
 Corynocarpus dissimilis
